--- a/pred_ohlcv/54_21/2020-01-19 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>577498.37768981</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>577498.37768981</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>577606.94658981</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>602501.4111898099</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>596031.5694898099</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>589164.00058981</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>506598.87578981</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>473630.23748981</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>462581.24518981</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>248475.46318981</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>247179.26318981</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>398809.29958981</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>398866.56428981</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>454706.71798981</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>427043.55288981</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>316215.61718981</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>316738.57493628</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>291057.73883628</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>316104.09803628</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>311281.71833628</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>312545.95823628</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>312545.95823628</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>312545.95823628</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>330201.14123628</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>355053.22459002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>356870.40619002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>356870.40619002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>422563.24249002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>405995.52599002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-330051.58920998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-308718.40450998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-417908.02070998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-365277.26130998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-431222.09884325</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-428200.84024325</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-428808.63844325</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-428808.63844325</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-339275.31095712</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-339526.88575712</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-317708.74518699</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-316917.50098699</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-262382.81498699</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-262382.81498699</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-308305.48778699</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-302906.28678699</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-312648.00368699</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-312614.82936777</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-180419.49906777</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1375836.41056905</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1376118.28041248</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1375816.20491248</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1393593.68176973</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1393769.50086973</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1359610.68736973</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1349258.73496973</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1280018.30036973</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1286538.35067326</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1282848.95673387</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1236132.01273387</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1234039.82943387</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1262186.51213387</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1170726.1020813</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1171055.30425016</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1166055.51635016</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1157005.51635016</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1117978.42610878</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1215182.30760878</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1212099.52760878</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1222801.55670878</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1221916.68530878</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1196687.58420878</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1198122.473608779</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>748245.0418800095</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>643904.0021800095</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>626514.1817163494</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>623946.7381163494</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>623946.7381163494</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>623946.7381163494</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>341194.0316163495</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>180658.2109163495</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>165326.9262163495</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>57143.16571634947</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1721.751283650538</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>77702.66501634946</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>77702.66501634946</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>281666.5908351095</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>281666.5908351095</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>282165.2794899795</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>581702.9739364394</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>579742.9281364394</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>557345.3614364394</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>560469.4465364395</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>559469.4465364395</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>570022.6329364395</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>571426.5272364395</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>571335.3618422195</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>570242.9556422195</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>566953.8422422195</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>661553.8422422195</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>673134.0522422194</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>673134.0522422194</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>687400.5964422195</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>687400.5964422195</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>646677.3508422194</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>646677.3508422194</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>628470.6253422194</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>1031294.495042219</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1021591.265842219</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>1179386.919742219</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>1179386.919742219</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1179534.574942219</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1179717.818942219</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>1178875.961442219</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>1178875.961442219</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>994733.2346167694</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>999144.4532167694</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>999111.4532167694</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>953586.1773402494</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1307573.10354025</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1307573.10354025</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1321933.34214025</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1363791.06434025</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1363850.53784025</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1709932.459244299</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1520895.24403678</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1514091.924036779</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1400006.31213678</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1399889.453636779</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1393666.08913678</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1302816.646736779</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1220896.73083678</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>1223864.73083678</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1090761.54303678</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>1149635.1694104</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>1104738.4886104</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>1046565.8848104</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>1202622.48185358</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>1207622.48185358</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>1207622.48185358</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>1118928.41425358</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>1106229.39525358</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>1094821.36195358</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>1045795.46405358</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>1346094.82255358</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>1431330.79445358</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>1490321.38851229</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>1486186.25631229</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1485396.52051229</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>1498691.52261229</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>1562469.05769633</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>1459424.64699633</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>1347224.03039633</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>1332284.44169633</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>1336614.44169633</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>1339223.61639633</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>1343142.82532525</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>1341601.35522525</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>1341601.35522525</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>1191613.17212447</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>1527886.42122447</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>1667580.34722447</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>1699730.34722447</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>1708930.34722447</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>1815686.43223999</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>1816600.23223999</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>1766600.23223999</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>577498.37768981</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>577498.37768981</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>577606.94658981</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>602501.4111898099</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>596031.5694898099</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>595981.0485898099</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>589164.00058981</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>506598.87578981</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>473630.23748981</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>462581.24518981</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>248475.46318981</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>247179.26318981</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>398809.29958981</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>398866.56428981</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>454706.71798981</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>427043.55288981</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>316215.61718981</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>316738.57493628</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>291057.73883628</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>316104.09803628</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>311281.71833628</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>312545.95823628</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>312545.95823628</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>312545.95823628</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>330201.14123628</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>355053.22459002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>356870.40619002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>356870.40619002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>422563.24249002</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>405995.52599002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-330051.58920998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-308718.40450998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-417908.02070998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-365277.26130998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-431222.09884325</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-428200.84024325</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-428808.63844325</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-428808.63844325</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-427413.64145712</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-306823.06155712</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-339275.31095712</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-339526.88575712</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-93802.24725712003</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-317708.74518699</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-316917.50098699</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-262382.81498699</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-262382.81498699</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-308305.48778699</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-302906.28678699</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-312648.00368699</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-312614.82936777</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-180419.49906777</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-189025.29676777</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-189386.82916777</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-152539.33726777</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-150551.26566777</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-99839.01826777001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>669252.3722800801</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1375836.41056905</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1376118.28041248</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1375816.20491248</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1393593.68176973</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1377524.09256973</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1391640.73226973</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1393133.28536973</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1393728.31436973</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1393769.50086973</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1359610.68736973</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1349258.73496973</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1392169.12586973</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1392073.58016973</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1280018.30036973</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1286538.35067326</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1282848.95673387</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1236132.01273387</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1170704.99032457</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1170726.1020813</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1171055.30425016</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1166055.51635016</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1157005.51635016</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1117978.42610878</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1215182.30760878</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1212099.52760878</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1222801.55670878</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1221916.68530878</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1196687.58420878</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1198122.473608779</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>748245.0418800095</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>643904.0021800095</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>170980.8144163495</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>170980.8144163495</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>222758.0725163495</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>222758.0725163495</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>181103.3624163495</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>284627.3804163494</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>277495.4595163494</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>277495.4595163494</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>234600.2884163494</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>308274.7667163494</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>308274.7667163494</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>304086.0348163494</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>627228.9384163495</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>341194.0316163495</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>183369.8650163495</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>165326.9262163495</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>57946.40661634946</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>15257.85951634946</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1721.751283650538</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>77702.66501634946</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>77702.66501634946</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>281666.5908351095</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>282165.2794899795</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>581702.9739364394</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>579742.9281364394</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>557345.3614364394</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>560469.4465364395</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>559469.4465364395</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>569724.5672923195</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>570022.6329364395</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>571426.5272364395</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>571335.3618422195</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>570242.9556422195</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>570262.7124422195</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>566953.8422422195</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>661553.8422422195</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>673134.0522422194</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>673134.0522422194</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>687400.5964422195</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>687400.5964422195</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>646677.3508422194</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>646677.3508422194</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>628470.6253422194</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>1031294.495042219</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1021591.265842219</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>1179386.919742219</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>1179386.919742219</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1179534.574942219</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1179717.818942219</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>1178875.961442219</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>1178875.961442219</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>994733.2346167694</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>999144.4532167694</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>999111.4532167694</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>953586.1773402494</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1307573.10354025</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1307573.10354025</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1321933.34214025</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1363791.06434025</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1363850.53784025</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1690153.32854167</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1694752.42844167</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1709932.459244299</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1520895.24403678</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1514091.924036779</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1490300.84283678</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1400006.31213678</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1399889.453636779</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1392811.355236779</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1393666.08913678</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1302816.646736779</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1220896.73083678</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>939706.9841535796</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>911021.8897535796</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>922531.3964535797</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>918927.2594535797</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>1405548.21715358</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>1405578.21715358</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>1401499.06335358</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>1386569.90205358</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>1202622.48185358</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>1486186.25631229</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1485396.52051229</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>1498691.52261229</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>1562469.05769633</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>1459424.64699633</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>1347224.03039633</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>1332284.44169633</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>1336614.44169633</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>1381507.24429633</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>1380776.05739633</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>1339223.61639633</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>1343142.82532525</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>1341601.35522525</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>1708930.34722447</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>1815686.43223999</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>1816600.23223999</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>1766600.23223999</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
